--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3297346.952750333</v>
+        <v>3290329.937858622</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68.14366600798826</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>7.944621118398112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.29997400339131</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>194.3185979147718</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>96.05432859460988</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>47.50320101340444</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>56.51772907233346</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>14.46389722690867</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.27848144397878</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>287.2841839626602</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586891</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.367793941671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2577843952105</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>153.0952537370583</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.7547293727785</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>173.5954779282454</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.827716759979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.83201408973471</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.15058872626284</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>71.03759657939784</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>71.70438177725002</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.65483501017442</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.7568420184986</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4294528083274</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>166.1848299532894</v>
       </c>
       <c r="W40" t="n">
-        <v>276.434828295096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.3535488188556</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>77.22206678602424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2512.946733515829</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2512.946733515829</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>662.1694145060392</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>662.1694145060392</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.111989013772</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1307.111989013772</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1307.111989013772</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1307.111989013772</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>896.1260842241645</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G5" t="n">
-        <v>478.1622761223514</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>150.9675561583542</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.1482364572794</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572794</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572794</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679801</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.984870679801</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.984870679801</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,13 +4819,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>2268.654643287637</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,58 +5026,58 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.7814158330673</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330673</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>796.198585870028</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>506.7814158330673</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X13" t="n">
-        <v>506.7814158330673</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.7814158330673</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,46 +5269,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1267.886895026012</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1267.886895026012</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1013.202406820125</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>723.7852367831648</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>723.7852367831648</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,31 +5737,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3982.180927373294</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4236.865415579181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>3982.180927373294</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>3982.180927373294</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3982.180927373294</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3982.180927373294</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>180.0505168052655</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>329.1202010073254</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>943.017270764214</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1408.865170834405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1408.865170834405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1408.865170834405</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1119.736532047963</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>865.0520438420759</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>865.0520438420759</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>637.0624929440586</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>484.0375086983735</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C28" t="n">
-        <v>484.0375086983735</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D28" t="n">
-        <v>484.0375086983735</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>484.0375086983735</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>337.1475612004631</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>168.9722395202837</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1426.487602096034</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1426.487602096034</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1202.70218688554</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1202.70218688554</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1202.70218688554</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>913.2850168485789</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>913.2850168485789</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.6859735286132</v>
+        <v>913.2850168485789</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>154.3878371814099</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.1316371486756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1432.59825539611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1432.59825539611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.59825539611</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1432.59825539611</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1177.913767190223</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1177.913767190223</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>949.9242162922058</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.1316371486756</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="32">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>846.9127704725952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>238.3856187516986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188989</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>420.0340835819383</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>420.0340835819383</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,19 +6934,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1390.401671761612</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1166.616256551118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1166.616256551118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>911.9317683452309</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>622.5145983082703</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,10 +7198,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,19 +7356,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
         <v>506.8551071885429</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.8045051785809</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>358.8683222506741</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.235100050368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1158.235100050368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1158.235100050368</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>1158.235100050368</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>930.2455491523508</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4529700088207</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>931.8655340243621</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>931.8655340243621</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>931.8655340243621</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9655,13 +9655,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>41.75994765618393</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.8380490462287</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5.100663089359898</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>176.7176547498454</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>392.1113620226436</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>85.87985892861755</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>72.61440165197882</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>102.7928316856108</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>52.11417746079175</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.75693659211578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>93.41480700889312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.81376367752996</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>77.87623178813828</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>38.25997062654278</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30951739361838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.48997908012922</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>90.49135717527582</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>85.95281337053862</v>
       </c>
       <c r="W40" t="n">
-        <v>10.088170041495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.19401223953363</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>174.9155765378038</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.401554105</v>
       </c>
       <c r="J2" t="n">
         <v>664749.4015541049</v>
@@ -26346,16 +26346,16 @@
         <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.401554105</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26438,28 +26438,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798375</v>
+        <v>-140574.3206798377</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.5585347074</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.5585347072</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162115</v>
+        <v>24452.84028189983</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185176</v>
+        <v>549612.876758796</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587956</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185176</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259245</v>
+        <v>373189.657566203</v>
       </c>
       <c r="K6" t="n">
-        <v>550587.4680185176</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="L6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587957</v>
       </c>
       <c r="M6" t="n">
-        <v>415786.4527846806</v>
+        <v>414811.8615249587</v>
       </c>
       <c r="N6" t="n">
-        <v>550587.4680185176</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="O6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="P6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587958</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>286.5393756126947</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>319.8076373517368</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>146.8455649466276</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>92.20440042181917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>55.87698765025137</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>203.7209664948849</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>110.7290920262944</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800561</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.651888628283</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>98.95375469339342</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.2168594104238</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328948</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36375,13 +36375,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>83.67012661109058</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>336.4270607962786</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36846,7 +36846,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>57.74822800113536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,16 +36922,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>315.5250401398261</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>487.1420318003116</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,16 +37870,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3290329.937858622</v>
+        <v>3295269.200707654</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.14366600798826</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>67.34019441676959</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>65.29997400339131</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>65.29997400339109</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>47.50320101340444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.46389722690867</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.283679164003814</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>287.2841839626602</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586891</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>88.40546239687039</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>153.0952537370583</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>173.5954779282454</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>204.129165153206</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.70438177725002</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>139.9695281564233</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>81.90355835744664</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>237.3965091869248</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,10 +3717,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>166.1848299532894</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766701</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>203.5330926723469</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.978909181595</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>662.1694145060392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>662.1694145060392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>372.9958041606071</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>372.9958041606071</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>372.9958041606071</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
         <v>372.9958041606071</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177357</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>74.21353655248446</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>60.29013249107536</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>60.29013249107536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287637</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5029,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5071,13 +5071,13 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5123,10 +5123,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
         <v>1198.760773441947</v>
@@ -5229,16 +5229,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188989</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W13" t="n">
-        <v>420.0340835819383</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X13" t="n">
         <v>265.3924131404652</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,28 +5296,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W19" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>303.4081673726151</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="23">
@@ -5977,43 +5977,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>731.6365520183392</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C28" t="n">
-        <v>562.7003690904323</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123426</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1426.487602096034</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1426.487602096034</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1202.70218688554</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1202.70218688554</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.70218688554</v>
+        <v>1133.747493573244</v>
       </c>
       <c r="W28" t="n">
-        <v>913.2850168485789</v>
+        <v>844.3303235362831</v>
       </c>
       <c r="X28" t="n">
-        <v>913.2850168485789</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y28" t="n">
-        <v>913.2850168485789</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6533,31 +6533,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,25 +6876,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U34" t="n">
-        <v>835.416391538794</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W34" t="n">
         <v>545.9992215018333</v>
@@ -6903,7 +6903,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,16 +6961,16 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7007,31 +7007,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,28 +7165,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1354.17636097712</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.759190940159</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928298</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>72.61440165197882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>52.11417746079175</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.45548819888879</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>23.17774625772566</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>38.25997062654278</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>112.1681151674047</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8060970315905</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.4554881988891</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>85.95281337053862</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>61.34209567542473</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="6">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846412</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541045</v>
@@ -26334,28 +26334,28 @@
         <v>664749.4015541048</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.401554105</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="P4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687076</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687076</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687077</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798377</v>
+        <v>-140574.3206798372</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347074</v>
+        <v>449393.5585347072</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347072</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="E6" t="n">
-        <v>24452.84028189983</v>
+        <v>25329.97241564898</v>
       </c>
       <c r="F6" t="n">
-        <v>549612.876758796</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="G6" t="n">
-        <v>549612.8767587956</v>
+        <v>550490.0088925449</v>
       </c>
       <c r="H6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925454</v>
       </c>
       <c r="I6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="J6" t="n">
-        <v>373189.657566203</v>
+        <v>374066.7896999526</v>
       </c>
       <c r="K6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="L6" t="n">
-        <v>549612.8767587957</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="M6" t="n">
-        <v>414811.8615249587</v>
+        <v>415688.9936587082</v>
       </c>
       <c r="N6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="O6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="P6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925457</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>286.5393756126947</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>302.3909062616995</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>146.8455649466276</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2846793487037</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>203.7209664948849</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.71246049576291</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.65885272800561</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>145.6476370808574</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>98.95375469339342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060684</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382562</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221091</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
